--- a/data/trans_orig/IP1017-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1818706-5E94-479F-A754-BA2156A576E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13165451-5E03-4858-9AAC-CA9D1F50B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2202DB-DEAF-411E-84E0-8582EDB7256E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{69DB0548-B358-46C3-88A1-9D97685C0A92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -88,6 +88,18 @@
     <t>99,71%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -100,18 +112,6 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -142,13 +142,13 @@
     <t>99,41%</t>
   </si>
   <si>
+    <t>99,73%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
     <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E487CA8-22B5-4792-AED4-85CA58F2F68D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC848A83-B2F3-4333-9048-87DA589601D7}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -762,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -777,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I6" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -792,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N6" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -813,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -828,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -843,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N7" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -866,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D8" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -881,10 +881,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I8" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -896,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N8" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -917,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -932,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -947,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1082,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEFABF-0295-47FE-90BC-F96033DEB3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D2580-CD75-4730-82CE-81C7D426D144}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1304,46 +1304,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D6" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I6" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N6" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1355,10 +1355,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1370,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I7" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1385,10 +1385,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1408,46 +1408,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D8" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I8" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1459,10 +1459,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1474,10 +1474,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1489,10 +1489,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1624,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F45C079-CB20-4680-A21A-AE36449E060F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A8E45E-BF26-4EBC-AFE1-8BAE4DBA45C1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1846,46 +1846,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D6" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>360</v>
+      </c>
+      <c r="I6" s="7">
+        <v>235333</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
+        <v>723</v>
+      </c>
+      <c r="N6" s="7">
+        <v>485385</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>375</v>
-      </c>
-      <c r="I6" s="7">
-        <v>267770</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="7">
-        <v>756</v>
-      </c>
-      <c r="N6" s="7">
-        <v>549399</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1897,10 +1897,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1912,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1927,10 +1927,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N7" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1950,46 +1950,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D8" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I8" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N8" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2001,10 +2001,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2016,10 +2016,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2031,10 +2031,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1017-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13165451-5E03-4858-9AAC-CA9D1F50B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC458B33-BC89-4BD7-AA2A-F67E9A861336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{69DB0548-B358-46C3-88A1-9D97685C0A92}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2009726-0574-462E-94BC-D145C1D2DFDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="54">
   <si>
     <t>Menores según si padecen leucemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>No</t>
@@ -76,79 +76,130 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
 </sst>
 </file>
@@ -159,7 +210,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -255,39 +306,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -339,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -450,13 +501,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -465,6 +509,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -529,19 +580,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC848A83-B2F3-4333-9048-87DA589601D7}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28226BF5-7C01-480E-A715-ADACD1224496}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -658,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -673,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -688,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -709,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -724,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -739,10 +810,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -762,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D6" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -777,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I6" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -792,10 +863,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N6" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -813,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D7" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -828,10 +899,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I7" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -843,10 +914,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N7" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -866,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D8" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -881,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I8" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -896,10 +967,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N8" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -917,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -932,10 +1003,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -947,10 +1018,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -964,52 +1035,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1086</v>
+        <v>310</v>
       </c>
       <c r="D10" s="7">
-        <v>722700</v>
+        <v>206049</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>1018</v>
+        <v>286</v>
       </c>
       <c r="I10" s="7">
-        <v>681021</v>
+        <v>194097</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2104</v>
+        <v>596</v>
       </c>
       <c r="N10" s="7">
-        <v>1403721</v>
+        <v>400146</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1021,55 +1092,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>310</v>
+      </c>
+      <c r="D11" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>286</v>
+      </c>
+      <c r="I11" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>596</v>
+      </c>
+      <c r="N11" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>1086</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>722700</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>1018</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>681021</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>2104</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>1403721</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1086</v>
+      </c>
+      <c r="D13" s="7">
+        <v>722700</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I13" s="7">
+        <v>681021</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1403721</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1082,8 +1263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D2580-CD75-4730-82CE-81C7D426D144}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3895878-1184-4E72-9969-CF7131948107}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1099,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1200,46 +1381,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1251,10 +1432,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1266,10 +1447,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1281,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1304,46 +1485,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D6" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I6" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N6" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1355,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1370,10 +1551,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1385,10 +1566,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N7" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1408,46 +1589,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D8" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I8" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N8" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1459,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1474,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1489,10 +1670,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1506,52 +1687,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1066</v>
+        <v>262</v>
       </c>
       <c r="D10" s="7">
-        <v>748142</v>
+        <v>177957</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>1018</v>
+        <v>243</v>
       </c>
       <c r="I10" s="7">
-        <v>706928</v>
+        <v>171337</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2084</v>
+        <v>505</v>
       </c>
       <c r="N10" s="7">
-        <v>1455070</v>
+        <v>349294</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1563,55 +1744,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>262</v>
+      </c>
+      <c r="D11" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>243</v>
+      </c>
+      <c r="I11" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>505</v>
+      </c>
+      <c r="N11" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>1066</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>748142</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>1018</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>706928</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>2084</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>1455070</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1066</v>
+      </c>
+      <c r="D13" s="7">
+        <v>748142</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I13" s="7">
+        <v>706928</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2084</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1455070</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1624,8 +1915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A8E45E-BF26-4EBC-AFE1-8BAE4DBA45C1}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5099AB-E481-4B80-9A74-C7BEC45D5EBC}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1641,7 +1932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1742,46 +2033,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1793,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -1808,10 +2099,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1823,10 +2114,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1846,46 +2137,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D6" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I6" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N6" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1897,10 +2188,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1912,10 +2203,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1927,10 +2218,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N7" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1950,46 +2241,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N8" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2001,10 +2292,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2016,10 +2307,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2031,10 +2322,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2048,52 +2339,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1065</v>
+        <v>235</v>
       </c>
       <c r="D10" s="7">
-        <v>744844</v>
+        <v>174048</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>1061</v>
+        <v>246</v>
       </c>
       <c r="I10" s="7">
-        <v>704371</v>
+        <v>173301</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2126</v>
+        <v>481</v>
       </c>
       <c r="N10" s="7">
-        <v>1449215</v>
+        <v>347348</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2105,55 +2396,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>235</v>
+      </c>
+      <c r="D11" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>246</v>
+      </c>
+      <c r="I11" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>481</v>
+      </c>
+      <c r="N11" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>1065</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>744844</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>1061</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>704371</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>2126</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>1449215</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D13" s="7">
+        <v>744844</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I13" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2126</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1449215</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1017-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC458B33-BC89-4BD7-AA2A-F67E9A861336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC83344B-7308-4B83-B988-A46FB5E72DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2009726-0574-462E-94BC-D145C1D2DFDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D301694F-64F0-488A-A786-4E9F8A9E7114}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +175,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>Menores según si padecen leucemia en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>98,98%</t>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28226BF5-7C01-480E-A715-ADACD1224496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322C88F-FBE2-47F7-8A59-63B8FE369831}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1263,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3895878-1184-4E72-9969-CF7131948107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4EF10-3D0E-431F-A7B3-FD10F2F23D96}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1915,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5099AB-E481-4B80-9A74-C7BEC45D5EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18B0425-36FA-40E2-B00A-D821A8C834B5}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP1017-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1017-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC83344B-7308-4B83-B988-A46FB5E72DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F92EC8F1-C9A6-4AF6-8941-75E25AEEFC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D301694F-64F0-488A-A786-4E9F8A9E7114}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1FC11581-F4B5-49E8-8919-FEA98809236D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si padecen leucemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,60 +76,60 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>99,49%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -139,51 +139,51 @@
     <t>Menores según si padecen leucemia en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
     <t>Menores según si padecen leucemia en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>99,09%</t>
+  </si>
+  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
@@ -193,10 +193,10 @@
     <t>99,64%</t>
   </si>
   <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9322C88F-FBE2-47F7-8A59-63B8FE369831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1B64EA-0AD3-4E55-9983-B28FE2C34765}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -729,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D4" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -744,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I4" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -780,25 +780,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>162</v>
+      </c>
+      <c r="D5" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>182</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>121380</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>162</v>
-      </c>
-      <c r="I5" s="7">
-        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -833,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="7">
-        <v>253756</v>
+        <v>253205</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -848,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I6" s="7">
-        <v>253205</v>
+        <v>253756</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -884,25 +884,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>379</v>
+      </c>
+      <c r="D7" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>382</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>253756</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>379</v>
-      </c>
-      <c r="I7" s="7">
-        <v>253205</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -937,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7">
-        <v>141515</v>
+        <v>127548</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -952,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="I8" s="7">
-        <v>127548</v>
+        <v>141515</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>191</v>
+      </c>
+      <c r="D9" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>212</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>141515</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>191</v>
-      </c>
-      <c r="I9" s="7">
-        <v>127548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>206049</v>
+        <v>194097</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1056,10 +1056,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I10" s="7">
-        <v>194097</v>
+        <v>206049</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1092,25 +1092,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>286</v>
+      </c>
+      <c r="D11" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>310</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>206049</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>286</v>
-      </c>
-      <c r="I11" s="7">
-        <v>194097</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1145,10 +1145,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1086</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="7">
-        <v>722700</v>
+        <v>681021</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1160,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1018</v>
+        <v>1086</v>
       </c>
       <c r="I12" s="7">
-        <v>681021</v>
+        <v>722700</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1196,25 +1196,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D13" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>1086</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>722700</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I13" s="7">
-        <v>681021</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1263,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4EF10-3D0E-431F-A7B3-FD10F2F23D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78460926-884C-40BE-A3E3-A65FB3176B6B}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1381,10 +1381,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1396,10 +1396,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I4" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1432,25 +1432,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1485,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="D6" s="7">
-        <v>267101</v>
+        <v>234476</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -1500,10 +1500,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="I6" s="7">
-        <v>234476</v>
+        <v>267101</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -1536,25 +1536,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>337</v>
+      </c>
+      <c r="D7" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>371</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>267101</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>337</v>
-      </c>
-      <c r="I7" s="7">
-        <v>234476</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1589,10 +1589,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D8" s="7">
-        <v>158571</v>
+        <v>154834</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -1604,10 +1604,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I8" s="7">
-        <v>154834</v>
+        <v>158571</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -1640,25 +1640,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>220</v>
+      </c>
+      <c r="D9" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>228</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>158571</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>220</v>
-      </c>
-      <c r="I9" s="7">
-        <v>154834</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1693,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D10" s="7">
-        <v>177957</v>
+        <v>171337</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1708,10 +1708,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>171337</v>
+        <v>177957</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1744,25 +1744,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>243</v>
+      </c>
+      <c r="D11" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>262</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>177957</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>243</v>
-      </c>
-      <c r="I11" s="7">
-        <v>171337</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1797,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1066</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="7">
-        <v>748142</v>
+        <v>706928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1812,10 +1812,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1018</v>
+        <v>1066</v>
       </c>
       <c r="I12" s="7">
-        <v>706928</v>
+        <v>748142</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1848,25 +1848,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D13" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>1066</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>748142</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I13" s="7">
-        <v>706928</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1915,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18B0425-36FA-40E2-B00A-D821A8C834B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A752D7-CBDC-4FAB-8237-A57E05900BC5}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,10 +2033,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D4" s="7">
-        <v>124164</v>
+        <v>131654</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2048,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="I4" s="7">
-        <v>131654</v>
+        <v>124164</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -2084,25 +2084,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -2137,31 +2137,31 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>332</v>
+      </c>
+      <c r="D6" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>380</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>258061</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>332</v>
-      </c>
-      <c r="I6" s="7">
-        <v>210517</v>
-      </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -2188,25 +2188,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>332</v>
+      </c>
+      <c r="D7" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>380</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>258061</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>332</v>
-      </c>
-      <c r="I7" s="7">
-        <v>210517</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -2241,31 +2241,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>272</v>
+      </c>
+      <c r="D8" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
         <v>263</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>188572</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>272</v>
-      </c>
-      <c r="I8" s="7">
-        <v>188899</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -2292,25 +2292,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>272</v>
+      </c>
+      <c r="D9" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>263</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>188572</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>272</v>
-      </c>
-      <c r="I9" s="7">
-        <v>188899</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2345,10 +2345,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D10" s="7">
-        <v>174048</v>
+        <v>173301</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -2360,10 +2360,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I10" s="7">
-        <v>173301</v>
+        <v>174048</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -2396,25 +2396,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>246</v>
+      </c>
+      <c r="D11" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>235</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>174048</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>246</v>
-      </c>
-      <c r="I11" s="7">
-        <v>173301</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -2449,31 +2449,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D12" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>1065</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>744844</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I12" s="7">
-        <v>704371</v>
-      </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -2500,25 +2500,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D13" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>1065</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>744844</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I13" s="7">
-        <v>704371</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
